--- a/Aguas y Aguas Residuales/14.2.xlsx
+++ b/Aguas y Aguas Residuales/14.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Aguas y Aguas Residuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2330474-C00A-4B52-BF4C-921ECA096F9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D9F3C8-3E3B-4D7D-B4EF-453EE8D00BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A9B1E1D3-68BE-4CFA-884F-889296C0F3CD}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
   <si>
     <t>Región</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Axel Leonardo Olguín Villa</t>
   </si>
   <si>
-    <t>Marcos LABRA  ulloa</t>
-  </si>
-  <si>
     <t>Carlos Armando Ciappa Petrescu</t>
   </si>
   <si>
@@ -246,12 +243,6 @@
     <t>Río/Estero</t>
   </si>
   <si>
-    <t>Id_producto</t>
-  </si>
-  <si>
-    <t>Id_categoría</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ríos  </t>
   </si>
   <si>
@@ -298,6 +289,9 @@
   </si>
   <si>
     <t>Caudal (L/s) registrado en el Monitoreo de Extracciones Efectivas de obras de captación de agua superficial construidas por tipo de fuente, territorio, titular y período. Un arroyo es una corriente continua de agua superficial pero que, a dferencia de un río, tiene un caudal mucho más pequeño.</t>
+  </si>
+  <si>
+    <t>Marcos Labra Ulloa</t>
   </si>
 </sst>
 </file>
@@ -318,18 +312,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -345,10 +333,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -356,6 +343,9 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{819B16FD-6F25-4275-AB16-EE503A0C2F4E}"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -379,9 +369,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -434,18 +421,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F099829E-E33F-463C-AA2D-9EA75C138637}" name="Caudal_obras_aguas_superficiales" displayName="Caudal_obras_aguas_superficiales" ref="A1:V10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:V10" xr:uid="{0BAEC30A-E3B4-4059-9A9C-E116395F8AFC}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{9AFF282D-3F59-4ADB-A948-537A518BDBE5}" uniqueName="1" name="Región" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{43A00DD0-55AB-4AF7-A8A1-7E6284B11DE6}" uniqueName="2" name="Comuna" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{9AFF282D-3F59-4ADB-A948-537A518BDBE5}" uniqueName="1" name="Región" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{43A00DD0-55AB-4AF7-A8A1-7E6284B11DE6}" uniqueName="2" name="Comuna" queryTableFieldId="2" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{D080F369-41D4-49D7-9638-DEC141920E26}" uniqueName="3" name="Id_región" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{6BA854CC-BB26-417B-BD78-B5D1815CD287}" uniqueName="4" name="Id_comuna" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{06E5A634-EBF3-405C-AF9C-48A480BE10ED}" uniqueName="5" name="Id_Producto" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{46E73ADA-5EC9-4AEC-9E0F-398DB74F5E78}" uniqueName="6" name="Producto" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{46E73ADA-5EC9-4AEC-9E0F-398DB74F5E78}" uniqueName="6" name="Producto" queryTableFieldId="6" dataDxfId="7"/>
     <tableColumn id="7" xr3:uid="{280AC2D3-C9CD-46BB-A78E-A7A160C84E59}" uniqueName="7" name="Id_Categoría" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{BB491DC2-A47C-4410-8CEB-01D3B6B51800}" uniqueName="8" name="Categoría" queryTableFieldId="8" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{F7BBFA46-A070-4E0C-8422-798CEA8DC089}" uniqueName="9" name="Cuenca" queryTableFieldId="9" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{FAADDBFC-B9B0-4814-9462-6CEE58AFFAC3}" uniqueName="10" name="Tipo de Titular" queryTableFieldId="10" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{FEDDAD40-E2E0-4E7D-BD2A-542408AF1DD4}" uniqueName="11" name="Nombre del Titular" queryTableFieldId="11" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{47505CE5-004C-4B93-A15F-140232ECE6ED}" uniqueName="12" name="Tipo de fuente" queryTableFieldId="12" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{BB491DC2-A47C-4410-8CEB-01D3B6B51800}" uniqueName="8" name="Categoría" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{F7BBFA46-A070-4E0C-8422-798CEA8DC089}" uniqueName="9" name="Cuenca" queryTableFieldId="9" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{FAADDBFC-B9B0-4814-9462-6CEE58AFFAC3}" uniqueName="10" name="Tipo de Titular" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{FEDDAD40-E2E0-4E7D-BD2A-542408AF1DD4}" uniqueName="11" name="Nombre del Titular" queryTableFieldId="11" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{47505CE5-004C-4B93-A15F-140232ECE6ED}" uniqueName="12" name="Tipo de fuente" queryTableFieldId="12" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{00674568-A639-4E29-9870-7D558011B447}" uniqueName="13" name="Definición" queryTableFieldId="13"/>
     <tableColumn id="14" xr3:uid="{C49D0E90-5624-49D6-A1E5-479F27491834}" uniqueName="14" name="30-09-2019" queryTableFieldId="14"/>
     <tableColumn id="15" xr3:uid="{8D6CEE17-7842-47DB-B185-25429174164C}" uniqueName="15" name="12-06-2020" queryTableFieldId="15"/>
@@ -476,8 +463,8 @@
     <tableColumn id="9" xr3:uid="{FC780F4B-C7DB-41E4-A693-53DD6FA99C6B}" name="Tags"/>
     <tableColumn id="10" xr3:uid="{DBB530BB-992B-4190-848A-D7DE9C8CD202}" name="ISO país"/>
     <tableColumn id="11" xr3:uid="{15A07EEF-6C1F-4CF5-9B02-0FF1E380ED4A}" name="Nivel administrativo"/>
-    <tableColumn id="12" xr3:uid="{A800014D-067C-4919-A1EA-CB1BE2239437}" name="Descripción larga" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{21C1EE09-C873-4F57-9432-F9DF6B2F64A0}" name="Fecha" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{A800014D-067C-4919-A1EA-CB1BE2239437}" name="Descripción larga" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{21C1EE09-C873-4F57-9432-F9DF6B2F64A0}" name="Fecha" dataDxfId="0"/>
     <tableColumn id="14" xr3:uid="{7A8C3236-0C8F-4AD3-BA7C-589BA810C594}" name="Unidad"/>
     <tableColumn id="15" xr3:uid="{24AFDEA5-B87E-4622-A270-B32EFC13575C}" name="Responsable"/>
   </tableColumns>
@@ -782,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0990A9-6C8A-4CD6-9135-FE13E8A12DC1}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +793,7 @@
     <col min="14" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
         <v>40</v>
@@ -859,7 +846,7 @@
         <v>23</v>
       </c>
       <c r="R1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S1" t="s">
         <v>21</v>
@@ -874,7 +861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,7 +884,7 @@
         <v>150102017</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -909,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -941,20 +928,8 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="X2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -977,7 +952,7 @@
         <v>150102017</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>9</v>
@@ -989,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1021,20 +996,8 @@
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="X3" s="2">
-        <v>150102</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>150102017</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1057,7 +1020,7 @@
         <v>150102001</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>27</v>
@@ -1069,7 +1032,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -1102,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1088,7 @@
         <v>150102001</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>28</v>
@@ -1137,7 +1100,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -1170,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1193,7 +1156,7 @@
         <v>150102017</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>27</v>
@@ -1205,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1238,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1261,7 +1224,7 @@
         <v>150102001</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>29</v>
@@ -1270,10 +1233,10 @@
         <v>10</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -1306,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1329,7 +1292,7 @@
         <v>150102001</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -1338,10 +1301,10 @@
         <v>10</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -1374,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1397,7 +1360,7 @@
         <v>150102001</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -1409,7 +1372,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -1442,12 +1405,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1465,7 +1428,7 @@
         <v>150102006</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>59</v>
@@ -1477,7 +1440,7 @@
         <v>60</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10">
         <v>3</v>
@@ -1590,16 +1553,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -1608,10 +1571,10 @@
         <v>55</v>
       </c>
       <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
         <v>75</v>
-      </c>
-      <c r="I2" t="s">
-        <v>78</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
@@ -1620,13 +1583,13 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="3">
+        <v>79</v>
+      </c>
+      <c r="M2" s="2">
         <v>44313</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O2" t="s">
         <v>54</v>
@@ -1637,16 +1600,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -1655,10 +1618,10 @@
         <v>55</v>
       </c>
       <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
         <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>79</v>
       </c>
       <c r="J3" t="s">
         <v>53</v>
@@ -1667,13 +1630,13 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M3" s="3">
+        <v>80</v>
+      </c>
+      <c r="M3" s="2">
         <v>44313</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O3" t="s">
         <v>54</v>
@@ -1684,16 +1647,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -1702,10 +1665,10 @@
         <v>55</v>
       </c>
       <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
         <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>80</v>
       </c>
       <c r="J4" t="s">
         <v>53</v>
@@ -1714,13 +1677,13 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="3">
+        <v>81</v>
+      </c>
+      <c r="M4" s="2">
         <v>44313</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
